--- a/ouest-france/public/data/HellfestDataBasic.xlsx
+++ b/ouest-france/public/data/HellfestDataBasic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HellfestDataBasic" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6533" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6535" uniqueCount="1484">
   <si>
     <t>Nom</t>
   </si>
@@ -4472,6 +4472,12 @@
   </si>
   <si>
     <t>DJ Psychoterror</t>
+  </si>
+  <si>
+    <t>Nbscenes</t>
+  </si>
+  <si>
+    <t>Nbgroupes</t>
   </si>
 </sst>
 </file>
@@ -5286,7 +5292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P14" sqref="A1:R1104"/>
     </sheetView>
   </sheetViews>
@@ -67144,8 +67150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68231,10 +68237,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68242,108 +68248,186 @@
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1434</v>
       </c>
       <c r="B1" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2006</v>
       </c>
       <c r="B2">
         <v>22000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2007</v>
       </c>
       <c r="B3">
         <v>40000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2008</v>
       </c>
       <c r="B4">
         <v>45000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2009</v>
       </c>
       <c r="B5">
         <v>60000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2010</v>
       </c>
       <c r="B6">
         <v>70000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
       <c r="B7">
         <v>75000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2012</v>
       </c>
       <c r="B8">
         <v>115000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2013</v>
       </c>
       <c r="B9">
         <v>102000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
       <c r="B10">
         <v>152000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
       <c r="B11">
         <v>140000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2016</v>
       </c>
       <c r="B12">
         <v>159000</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
       <c r="B13">
         <v>152000</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
